--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446404.2343236809</v>
+        <v>443965.7612239344</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11996875.12975548</v>
+        <v>11996875.12975547</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>298.9787503760181</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>193.0439640562659</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>56.48865491052438</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>239.2916987100191</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>267.8635071306604</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476202</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>292.2938138909344</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>95.71093097740503</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.4424591077293</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>177.6639791994877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6293919502451603</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>33.51083321952625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819443</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699744</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819443</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428077</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699744</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>178.807694485761</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890417</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189057</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>114.932220804165</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>104.1233804225823</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>119.6760079449695</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>563.5047572728743</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>261.5060195193207</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>261.5060195193207</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>261.5060195193207</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2698.747681409957</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.979026139843</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4395,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.1049005553748</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1373.98868883977</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1119.304200633883</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>829.8870305969223</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>601.8974796989049</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.1049005553748</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1506.363819949358</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1506.363819949358</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1148.098121342608</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1148.098121342608</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>2776.829068225498</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.060412955384</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.060412955384</v>
+        <v>2283.102991989292</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.921080979572</v>
+        <v>1892.96366001348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>975.2324122773183</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>846.3749096777597</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4996,16 +4996,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>846.3749096777597</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>846.3749096777597</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.3749096777597</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>251.5626541092274</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400642</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121573</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121573</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297642</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400642</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121573</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121573</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297642</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2016.448712673668</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1727.373486017865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1183.271827775018</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>955.2822768770003</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.4896977334702</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5735,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650331</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650331</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>265.0018757204596</v>
+        <v>82.9516196962437</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>271.2636035596105</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.92013949559376</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345295684</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393159</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295684</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459757</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>38.59775584152729</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303783</v>
+        <v>145.6085800303796</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295126</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>121.5862749664549</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>45.8481303472993</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963966.5077223057</v>
+        <v>963966.5077223061</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1041310.793905005</v>
+        <v>1041310.793905004</v>
       </c>
     </row>
     <row r="6">
@@ -26314,13 +26314,13 @@
         <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26335,25 +26335,25 @@
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.0152055166</v>
+        <v>49629.01520551689</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26442,7 +26442,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26454,7 +26454,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1131727.604631383</v>
+        <v>-1131913.998019922</v>
       </c>
       <c r="C6" t="n">
-        <v>189877.0012059596</v>
+        <v>189877.0012059593</v>
       </c>
       <c r="D6" t="n">
-        <v>189877.0012059595</v>
+        <v>189877.001205959</v>
       </c>
       <c r="E6" t="n">
-        <v>-56137.22092533982</v>
+        <v>-56171.95885077506</v>
       </c>
       <c r="F6" t="n">
-        <v>269275.2408820154</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="G6" t="n">
-        <v>269275.2408820152</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="H6" t="n">
-        <v>269275.2408820157</v>
+        <v>269240.5029565798</v>
       </c>
       <c r="I6" t="n">
-        <v>269275.2408820154</v>
+        <v>269240.5029565797</v>
       </c>
       <c r="J6" t="n">
-        <v>51744.0384847379</v>
+        <v>51709.30055930227</v>
       </c>
       <c r="K6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565796</v>
       </c>
       <c r="L6" t="n">
-        <v>269275.2408820154</v>
+        <v>269240.5029565796</v>
       </c>
       <c r="M6" t="n">
-        <v>184220.2129465034</v>
+        <v>184185.4750210678</v>
       </c>
       <c r="N6" t="n">
-        <v>269275.2408820152</v>
+        <v>269240.5029565796</v>
       </c>
       <c r="O6" t="n">
-        <v>269275.2408820153</v>
+        <v>269240.5029565794</v>
       </c>
       <c r="P6" t="n">
-        <v>269275.2408820151</v>
+        <v>269240.5029565797</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116.9284943518022</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>101.5638003310546</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.65949120593058</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.2123206940912</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>35.45844457920055</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>129.9987244116321</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>96.14219424436551</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>192.0671214789813</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3964163087831</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>253.0121651170647</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-4.69252986170444e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-4.69252986170444e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.933294279645717e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>146.0225991093094</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,28 +32084,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.482598761492</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32792,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>8.181160134950407</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394736</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899035</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
